--- a/Ifood-Teste-5.xlsx
+++ b/Ifood-Teste-5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\Projeto 2 CdD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB26DC95-465B-4A89-AEF2-0409C5691087}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEB3BA8-202B-4136-B923-2C8FB03D8041}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="430">
   <si>
     <t>Tweets</t>
   </si>
@@ -1594,9 +1594,6 @@
   </si>
   <si>
     <t>IMPOSSIVEL SABER</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1678,7 +1675,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2000,19 +1997,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C423"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="127.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="127.26953125" customWidth="1"/>
+    <col min="2" max="2" width="31.54296875" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2023,7 +2020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2034,7 +2031,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2045,7 +2042,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2056,7 +2053,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2067,7 +2064,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2078,7 +2075,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2089,7 +2086,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2100,7 +2097,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2111,7 +2108,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2122,7 +2119,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2133,7 +2130,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2144,7 +2141,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2155,7 +2152,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2166,7 +2163,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -2177,7 +2174,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2188,7 +2185,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2199,7 +2196,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2210,7 +2207,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2221,7 +2218,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -2232,7 +2229,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -2243,7 +2240,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2254,7 +2251,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -2265,7 +2262,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -2276,7 +2273,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -2287,7 +2284,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -2298,7 +2295,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -2309,7 +2306,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -2320,7 +2317,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -2331,7 +2328,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -2342,7 +2339,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -2353,7 +2350,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -2364,7 +2361,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -2375,7 +2372,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -2386,7 +2383,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -2397,7 +2394,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -2408,7 +2405,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -2419,7 +2416,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -2430,7 +2427,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -2441,7 +2438,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -2452,63 +2449,84 @@
         <v>428</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>42</v>
       </c>
+      <c r="B41" t="s">
+        <v>427</v>
+      </c>
       <c r="C41" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>43</v>
       </c>
+      <c r="B42" t="s">
+        <v>426</v>
+      </c>
       <c r="C42" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>44</v>
       </c>
+      <c r="B43" t="s">
+        <v>428</v>
+      </c>
       <c r="C43" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>45</v>
       </c>
+      <c r="B44" t="s">
+        <v>426</v>
+      </c>
       <c r="C44" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>46</v>
       </c>
+      <c r="B45" t="s">
+        <v>428</v>
+      </c>
       <c r="C45" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>47</v>
       </c>
+      <c r="B46" t="s">
+        <v>426</v>
+      </c>
       <c r="C46" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>48</v>
       </c>
+      <c r="B47" t="s">
+        <v>426</v>
+      </c>
       <c r="C47" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -2519,26 +2537,29 @@
         <v>425</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C49" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>51</v>
       </c>
+      <c r="B50" t="s">
+        <v>426</v>
+      </c>
       <c r="C50" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -2549,7 +2570,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -2560,23 +2581,29 @@
         <v>425</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>54</v>
       </c>
+      <c r="B53" t="s">
+        <v>428</v>
+      </c>
       <c r="C53" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>55</v>
       </c>
+      <c r="B54" t="s">
+        <v>426</v>
+      </c>
       <c r="C54" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -2584,7 +2611,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -2592,7 +2619,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -2600,7 +2627,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -2608,7 +2635,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -2616,7 +2643,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -2624,7 +2651,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -2632,7 +2659,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -2640,7 +2667,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -2648,7 +2675,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -2656,7 +2683,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -2664,7 +2691,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -2672,7 +2699,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -2680,7 +2707,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -2688,7 +2715,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -2696,7 +2723,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -2704,7 +2731,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -2712,7 +2739,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -2720,7 +2747,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -2728,7 +2755,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -2736,7 +2763,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -2744,7 +2771,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -2752,7 +2779,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -2760,7 +2787,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -2768,7 +2795,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -2776,7 +2803,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -2784,7 +2811,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -2792,7 +2819,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -2800,7 +2827,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -2808,7 +2835,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -2816,7 +2843,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -2824,7 +2851,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -2832,7 +2859,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -2840,7 +2867,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -2848,7 +2875,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -2856,7 +2883,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -2864,7 +2891,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -2872,7 +2899,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -2880,7 +2907,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -2888,7 +2915,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -2896,7 +2923,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -2904,7 +2931,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -2912,7 +2939,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -2920,7 +2947,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -2928,7 +2955,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -2936,7 +2963,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -2944,7 +2971,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -2952,7 +2979,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -2960,7 +2987,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -2968,7 +2995,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -2976,7 +3003,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -2984,7 +3011,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -2992,7 +3019,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -3000,7 +3027,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -3008,7 +3035,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -3016,7 +3043,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>111</v>
       </c>
@@ -3024,7 +3051,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -3032,7 +3059,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>113</v>
       </c>
@@ -3040,7 +3067,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>114</v>
       </c>
@@ -3048,7 +3075,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -3056,7 +3083,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>116</v>
       </c>
@@ -3064,7 +3091,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>117</v>
       </c>
@@ -3072,7 +3099,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>118</v>
       </c>
@@ -3080,7 +3107,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>119</v>
       </c>
@@ -3088,7 +3115,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>120</v>
       </c>
@@ -3096,7 +3123,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>121</v>
       </c>
@@ -3104,7 +3131,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>122</v>
       </c>
@@ -3112,7 +3139,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>123</v>
       </c>
@@ -3120,7 +3147,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>124</v>
       </c>
@@ -3128,7 +3155,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>125</v>
       </c>
@@ -3136,7 +3163,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>126</v>
       </c>
@@ -3144,7 +3171,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>127</v>
       </c>
@@ -3152,7 +3179,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>128</v>
       </c>
@@ -3160,7 +3187,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>129</v>
       </c>
@@ -3168,7 +3195,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>130</v>
       </c>
@@ -3176,7 +3203,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>131</v>
       </c>
@@ -3184,7 +3211,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>132</v>
       </c>
@@ -3192,7 +3219,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>133</v>
       </c>
@@ -3200,7 +3227,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>134</v>
       </c>
@@ -3208,7 +3235,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>135</v>
       </c>
@@ -3216,7 +3243,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>136</v>
       </c>
@@ -3224,7 +3251,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>137</v>
       </c>
@@ -3232,7 +3259,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>138</v>
       </c>
@@ -3240,7 +3267,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>139</v>
       </c>
@@ -3248,7 +3275,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>140</v>
       </c>
@@ -3256,7 +3283,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>141</v>
       </c>
@@ -3264,7 +3291,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>142</v>
       </c>
@@ -3272,7 +3299,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>143</v>
       </c>
@@ -3280,7 +3307,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>144</v>
       </c>
@@ -3288,7 +3315,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>145</v>
       </c>
@@ -3296,7 +3323,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>146</v>
       </c>
@@ -3304,7 +3331,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>147</v>
       </c>
@@ -3312,7 +3339,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>148</v>
       </c>
@@ -3320,7 +3347,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>149</v>
       </c>
@@ -3328,7 +3355,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>150</v>
       </c>
@@ -3336,7 +3363,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>151</v>
       </c>
@@ -3344,7 +3371,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>152</v>
       </c>
@@ -3352,7 +3379,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>153</v>
       </c>
@@ -3360,7 +3387,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>154</v>
       </c>
@@ -3368,7 +3395,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>155</v>
       </c>
@@ -3376,7 +3403,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>156</v>
       </c>
@@ -3384,7 +3411,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>157</v>
       </c>
@@ -3392,7 +3419,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>158</v>
       </c>
@@ -3400,7 +3427,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>159</v>
       </c>
@@ -3408,7 +3435,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>160</v>
       </c>
@@ -3416,7 +3443,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>161</v>
       </c>
@@ -3424,7 +3451,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>162</v>
       </c>
@@ -3432,7 +3459,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>163</v>
       </c>
@@ -3440,7 +3467,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>164</v>
       </c>
@@ -3448,7 +3475,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>165</v>
       </c>
@@ -3456,7 +3483,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>166</v>
       </c>
@@ -3464,7 +3491,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>167</v>
       </c>
@@ -3472,7 +3499,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>168</v>
       </c>
@@ -3480,7 +3507,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>169</v>
       </c>
@@ -3488,7 +3515,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>170</v>
       </c>
@@ -3496,7 +3523,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>171</v>
       </c>
@@ -3504,7 +3531,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>172</v>
       </c>
@@ -3512,7 +3539,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>173</v>
       </c>
@@ -3520,7 +3547,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>174</v>
       </c>
@@ -3528,7 +3555,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>175</v>
       </c>
@@ -3536,7 +3563,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>176</v>
       </c>
@@ -3544,7 +3571,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>177</v>
       </c>
@@ -3552,7 +3579,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>178</v>
       </c>
@@ -3560,7 +3587,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>179</v>
       </c>
@@ -3568,7 +3595,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>180</v>
       </c>
@@ -3576,7 +3603,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>181</v>
       </c>
@@ -3584,7 +3611,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>182</v>
       </c>
@@ -3592,7 +3619,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>183</v>
       </c>
@@ -3600,7 +3627,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>184</v>
       </c>
@@ -3608,7 +3635,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>185</v>
       </c>
@@ -3616,7 +3643,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>186</v>
       </c>
@@ -3624,7 +3651,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>187</v>
       </c>
@@ -3632,7 +3659,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>188</v>
       </c>
@@ -3640,7 +3667,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>189</v>
       </c>
@@ -3648,7 +3675,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>190</v>
       </c>
@@ -3656,7 +3683,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>191</v>
       </c>
@@ -3664,7 +3691,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>192</v>
       </c>
@@ -3672,7 +3699,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>193</v>
       </c>
@@ -3680,7 +3707,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>194</v>
       </c>
@@ -3688,7 +3715,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>195</v>
       </c>
@@ -3696,7 +3723,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>196</v>
       </c>
@@ -3704,7 +3731,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>197</v>
       </c>
@@ -3712,7 +3739,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>198</v>
       </c>
@@ -3720,7 +3747,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>199</v>
       </c>
@@ -3728,7 +3755,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>200</v>
       </c>
@@ -3736,7 +3763,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>201</v>
       </c>
@@ -3744,7 +3771,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>202</v>
       </c>
@@ -3752,7 +3779,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>203</v>
       </c>
@@ -3760,7 +3787,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>204</v>
       </c>
@@ -3768,7 +3795,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>205</v>
       </c>
@@ -3776,7 +3803,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>206</v>
       </c>
@@ -3784,7 +3811,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>207</v>
       </c>
@@ -3792,7 +3819,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>208</v>
       </c>
@@ -3800,7 +3827,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>209</v>
       </c>
@@ -3808,7 +3835,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>210</v>
       </c>
@@ -3816,7 +3843,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>211</v>
       </c>
@@ -3824,7 +3851,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>212</v>
       </c>
@@ -3832,7 +3859,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>213</v>
       </c>
@@ -3840,7 +3867,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>214</v>
       </c>
@@ -3848,7 +3875,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>215</v>
       </c>
@@ -3856,7 +3883,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>216</v>
       </c>
@@ -3864,7 +3891,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>217</v>
       </c>
@@ -3872,7 +3899,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>218</v>
       </c>
@@ -3880,7 +3907,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>219</v>
       </c>
@@ -3888,7 +3915,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>220</v>
       </c>
@@ -3896,7 +3923,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>221</v>
       </c>
@@ -3904,7 +3931,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>222</v>
       </c>
@@ -3912,7 +3939,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>223</v>
       </c>
@@ -3920,7 +3947,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>224</v>
       </c>
@@ -3928,7 +3955,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>225</v>
       </c>
@@ -3936,7 +3963,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>226</v>
       </c>
@@ -3944,7 +3971,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>227</v>
       </c>
@@ -3952,7 +3979,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>228</v>
       </c>
@@ -3960,7 +3987,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>229</v>
       </c>
@@ -3968,7 +3995,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>230</v>
       </c>
@@ -3976,7 +4003,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>231</v>
       </c>
@@ -3984,7 +4011,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>232</v>
       </c>
@@ -3992,7 +4019,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>233</v>
       </c>
@@ -4000,7 +4027,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>234</v>
       </c>
@@ -4008,7 +4035,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>235</v>
       </c>
@@ -4016,7 +4043,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>236</v>
       </c>
@@ -4024,7 +4051,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>237</v>
       </c>
@@ -4032,7 +4059,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>238</v>
       </c>
@@ -4040,7 +4067,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>239</v>
       </c>
@@ -4048,7 +4075,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>240</v>
       </c>
@@ -4056,7 +4083,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>241</v>
       </c>
@@ -4064,7 +4091,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>242</v>
       </c>
@@ -4072,7 +4099,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>243</v>
       </c>
@@ -4080,7 +4107,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>244</v>
       </c>
@@ -4088,7 +4115,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>245</v>
       </c>
@@ -4096,7 +4123,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>246</v>
       </c>
@@ -4104,7 +4131,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>247</v>
       </c>
@@ -4112,7 +4139,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>248</v>
       </c>
@@ -4120,7 +4147,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>249</v>
       </c>
@@ -4128,7 +4155,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>250</v>
       </c>
@@ -4136,7 +4163,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>251</v>
       </c>
@@ -4144,7 +4171,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>252</v>
       </c>
@@ -4152,7 +4179,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>253</v>
       </c>
@@ -4160,7 +4187,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>254</v>
       </c>
@@ -4168,7 +4195,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>255</v>
       </c>
@@ -4176,7 +4203,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>256</v>
       </c>
@@ -4184,7 +4211,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>257</v>
       </c>
@@ -4192,7 +4219,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>258</v>
       </c>
@@ -4200,7 +4227,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>259</v>
       </c>
@@ -4208,7 +4235,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>260</v>
       </c>
@@ -4216,7 +4243,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>261</v>
       </c>
@@ -4224,7 +4251,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>262</v>
       </c>
@@ -4232,7 +4259,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>263</v>
       </c>
@@ -4240,7 +4267,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>264</v>
       </c>
@@ -4248,7 +4275,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>265</v>
       </c>
@@ -4256,7 +4283,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>266</v>
       </c>
@@ -4264,7 +4291,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>267</v>
       </c>
@@ -4272,7 +4299,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>268</v>
       </c>
@@ -4280,7 +4307,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>269</v>
       </c>
@@ -4288,7 +4315,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>270</v>
       </c>
@@ -4296,7 +4323,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>271</v>
       </c>
@@ -4304,7 +4331,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>272</v>
       </c>
@@ -4312,7 +4339,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>273</v>
       </c>
@@ -4320,7 +4347,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>274</v>
       </c>
@@ -4328,7 +4355,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>275</v>
       </c>
@@ -4336,7 +4363,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>276</v>
       </c>
@@ -4344,7 +4371,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>277</v>
       </c>
@@ -4352,7 +4379,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>278</v>
       </c>
@@ -4360,7 +4387,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>279</v>
       </c>
@@ -4368,7 +4395,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>280</v>
       </c>
@@ -4376,7 +4403,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>281</v>
       </c>
@@ -4384,7 +4411,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>282</v>
       </c>
@@ -4392,7 +4419,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>283</v>
       </c>
@@ -4400,7 +4427,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>284</v>
       </c>
@@ -4408,7 +4435,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>285</v>
       </c>
@@ -4416,7 +4443,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>286</v>
       </c>
@@ -4424,7 +4451,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>287</v>
       </c>
@@ -4432,7 +4459,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>288</v>
       </c>
@@ -4440,7 +4467,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>289</v>
       </c>
@@ -4448,7 +4475,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>290</v>
       </c>
@@ -4456,7 +4483,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>291</v>
       </c>
@@ -4464,7 +4491,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>292</v>
       </c>
@@ -4472,7 +4499,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>293</v>
       </c>
@@ -4480,7 +4507,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>294</v>
       </c>
@@ -4488,7 +4515,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>295</v>
       </c>
@@ -4496,7 +4523,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>296</v>
       </c>
@@ -4504,7 +4531,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>297</v>
       </c>
@@ -4512,7 +4539,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>298</v>
       </c>
@@ -4520,7 +4547,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>299</v>
       </c>
@@ -4528,7 +4555,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>300</v>
       </c>
@@ -4536,7 +4563,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>301</v>
       </c>
@@ -4544,7 +4571,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>302</v>
       </c>
@@ -4552,7 +4579,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>303</v>
       </c>
@@ -4560,7 +4587,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>304</v>
       </c>
@@ -4568,7 +4595,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>305</v>
       </c>
@@ -4576,7 +4603,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>306</v>
       </c>
@@ -4584,7 +4611,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>307</v>
       </c>
@@ -4592,7 +4619,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>308</v>
       </c>
@@ -4600,7 +4627,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>309</v>
       </c>
@@ -4608,7 +4635,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>310</v>
       </c>
@@ -4616,7 +4643,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>311</v>
       </c>
@@ -4624,7 +4651,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>312</v>
       </c>
@@ -4632,7 +4659,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>313</v>
       </c>
@@ -4640,7 +4667,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>314</v>
       </c>
@@ -4648,7 +4675,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>315</v>
       </c>
@@ -4656,7 +4683,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>316</v>
       </c>
@@ -4664,7 +4691,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>317</v>
       </c>
@@ -4672,7 +4699,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>318</v>
       </c>
@@ -4680,7 +4707,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>319</v>
       </c>
@@ -4688,7 +4715,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>320</v>
       </c>
@@ -4696,7 +4723,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>321</v>
       </c>
@@ -4704,7 +4731,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>322</v>
       </c>
@@ -4712,7 +4739,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>323</v>
       </c>
@@ -4720,7 +4747,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>324</v>
       </c>
@@ -4728,7 +4755,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>325</v>
       </c>
@@ -4736,7 +4763,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>326</v>
       </c>
@@ -4744,7 +4771,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>327</v>
       </c>
@@ -4752,7 +4779,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>328</v>
       </c>
@@ -4760,7 +4787,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>329</v>
       </c>
@@ -4768,7 +4795,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>330</v>
       </c>
@@ -4776,7 +4803,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>331</v>
       </c>
@@ -4784,7 +4811,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>332</v>
       </c>
@@ -4792,7 +4819,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>333</v>
       </c>
@@ -4800,7 +4827,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>334</v>
       </c>
@@ -4808,7 +4835,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>335</v>
       </c>
@@ -4816,7 +4843,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>336</v>
       </c>
@@ -4824,7 +4851,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>337</v>
       </c>
@@ -4832,7 +4859,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>338</v>
       </c>
@@ -4840,7 +4867,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>339</v>
       </c>
@@ -4848,7 +4875,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>340</v>
       </c>
@@ -4856,7 +4883,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>341</v>
       </c>
@@ -4864,7 +4891,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>342</v>
       </c>
@@ -4872,7 +4899,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>343</v>
       </c>
@@ -4880,7 +4907,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>344</v>
       </c>
@@ -4888,7 +4915,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>345</v>
       </c>
@@ -4896,7 +4923,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>346</v>
       </c>
@@ -4904,7 +4931,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>347</v>
       </c>
@@ -4912,7 +4939,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>348</v>
       </c>
@@ -4920,7 +4947,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>349</v>
       </c>
@@ -4928,7 +4955,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>350</v>
       </c>
@@ -4936,7 +4963,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>351</v>
       </c>
@@ -4944,7 +4971,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>352</v>
       </c>
@@ -4952,7 +4979,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>353</v>
       </c>
@@ -4960,7 +4987,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>354</v>
       </c>
@@ -4968,7 +4995,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>355</v>
       </c>
@@ -4976,7 +5003,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>356</v>
       </c>
@@ -4984,7 +5011,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>357</v>
       </c>
@@ -4992,7 +5019,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>358</v>
       </c>
@@ -5000,7 +5027,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>359</v>
       </c>
@@ -5008,7 +5035,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>360</v>
       </c>
@@ -5016,7 +5043,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>361</v>
       </c>
@@ -5024,7 +5051,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>362</v>
       </c>
@@ -5032,7 +5059,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>363</v>
       </c>
@@ -5040,7 +5067,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>364</v>
       </c>
@@ -5048,7 +5075,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>365</v>
       </c>
@@ -5056,7 +5083,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>366</v>
       </c>
@@ -5064,7 +5091,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>367</v>
       </c>
@@ -5072,7 +5099,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>368</v>
       </c>
@@ -5080,7 +5107,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>369</v>
       </c>
@@ -5088,7 +5115,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>370</v>
       </c>
@@ -5096,7 +5123,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>371</v>
       </c>
@@ -5104,7 +5131,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>372</v>
       </c>
@@ -5112,7 +5139,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>373</v>
       </c>
@@ -5120,7 +5147,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>374</v>
       </c>
@@ -5128,7 +5155,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>375</v>
       </c>
@@ -5136,7 +5163,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>376</v>
       </c>
@@ -5144,7 +5171,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>377</v>
       </c>
@@ -5152,7 +5179,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>378</v>
       </c>
@@ -5160,7 +5187,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>379</v>
       </c>
@@ -5168,7 +5195,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>380</v>
       </c>
@@ -5176,7 +5203,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>381</v>
       </c>
@@ -5184,7 +5211,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>382</v>
       </c>
@@ -5192,7 +5219,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>383</v>
       </c>
@@ -5200,7 +5227,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>384</v>
       </c>
@@ -5208,7 +5235,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>385</v>
       </c>
@@ -5216,7 +5243,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>386</v>
       </c>
@@ -5224,7 +5251,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>387</v>
       </c>
@@ -5232,7 +5259,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>388</v>
       </c>
@@ -5240,7 +5267,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>389</v>
       </c>
@@ -5248,7 +5275,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>390</v>
       </c>
@@ -5256,7 +5283,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>391</v>
       </c>
@@ -5264,7 +5291,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>392</v>
       </c>
@@ -5272,7 +5299,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>393</v>
       </c>
@@ -5280,7 +5307,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>394</v>
       </c>
@@ -5288,7 +5315,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>395</v>
       </c>
@@ -5296,7 +5323,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>396</v>
       </c>
@@ -5304,7 +5331,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>397</v>
       </c>
@@ -5312,7 +5339,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>398</v>
       </c>
@@ -5320,7 +5347,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>399</v>
       </c>
@@ -5328,7 +5355,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>400</v>
       </c>
@@ -5336,7 +5363,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>401</v>
       </c>
@@ -5344,7 +5371,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>402</v>
       </c>
@@ -5352,7 +5379,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>403</v>
       </c>
@@ -5360,7 +5387,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>404</v>
       </c>
@@ -5368,7 +5395,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>405</v>
       </c>
@@ -5376,7 +5403,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>406</v>
       </c>
@@ -5384,7 +5411,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>407</v>
       </c>
@@ -5392,7 +5419,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>408</v>
       </c>
@@ -5400,7 +5427,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>409</v>
       </c>
@@ -5408,7 +5435,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>410</v>
       </c>
@@ -5416,7 +5443,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>411</v>
       </c>
@@ -5424,7 +5451,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>412</v>
       </c>
@@ -5432,7 +5459,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>413</v>
       </c>
@@ -5440,7 +5467,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>414</v>
       </c>
@@ -5448,7 +5475,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>415</v>
       </c>
@@ -5456,7 +5483,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>416</v>
       </c>
@@ -5464,7 +5491,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>417</v>
       </c>
@@ -5472,7 +5499,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>418</v>
       </c>
@@ -5480,7 +5507,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>419</v>
       </c>
@@ -5488,7 +5515,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>420</v>
       </c>
@@ -5496,7 +5523,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>421</v>
       </c>
@@ -5504,7 +5531,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>422</v>
       </c>
@@ -5512,7 +5539,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>423</v>
       </c>
@@ -5520,7 +5547,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>424</v>
       </c>
